--- a/styled_data.xlsx
+++ b/styled_data.xlsx
@@ -1,13 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -26,7 +25,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
@@ -55,10 +59,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -78,7 +91,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -453,14 +466,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -639,9 +652,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/styled_data.xlsx
+++ b/styled_data.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -35,6 +35,9 @@
     <font>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -77,7 +80,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -89,6 +92,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -166,17 +170,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H4" headerRowCount="1">
-  <autoFilter ref="A1:H4"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L13" headerRowCount="1">
+  <autoFilter ref="A1:L13"/>
+  <tableColumns count="12">
     <tableColumn id="1" name="FILIALE"/>
-    <tableColumn id="2" name="RESEAU"/>
-    <tableColumn id="3" name="ARN"/>
-    <tableColumn id="4" name="Autorisation"/>
-    <tableColumn id="5" name="Date Transaction"/>
-    <tableColumn id="6" name="Montant"/>
-    <tableColumn id="7" name="Devise"/>
-    <tableColumn id="8" name="Motif"/>
+    <tableColumn id="2" name="Réseau"/>
+    <tableColumn id="3" name="Type"/>
+    <tableColumn id="4" name="Date"/>
+    <tableColumn id="5" name="Devise"/>
+    <tableColumn id="6" name="Nbre Total De Transactions"/>
+    <tableColumn id="7" name="Montant Total de Transactions"/>
+    <tableColumn id="8" name="Rapprochement"/>
+    <tableColumn id="9" name="Montant de Rejets"/>
+    <tableColumn id="10" name="Montant de Transactions (Couverture)"/>
+    <tableColumn id="11" name="Nbre de Transactions (Couverture)"/>
+    <tableColumn id="12" name="Nbre Total de Rejets"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
 </table>
@@ -471,7 +479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,14 +487,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="1" max="1"/>
     <col width="26" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="297" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="28" customWidth="1" min="6" max="6"/>
+    <col width="31" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="19" customWidth="1" min="9" max="9"/>
+    <col width="38" customWidth="1" min="10" max="10"/>
+    <col width="35" customWidth="1" min="11" max="11"/>
+    <col width="22" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -497,44 +509,64 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>RESEAU</t>
+          <t>Réseau</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>ARN</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>Autorisation</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>Date Transaction</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Montant</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>Devise</t>
         </is>
       </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Nbre Total De Transactions</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Montant Total de Transactions</t>
+        </is>
+      </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>Motif</t>
+          <t>Rapprochement</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Montant de Rejets</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Montant de Transactions (Couverture)</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>Nbre de Transactions (Couverture)</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>Nbre Total de Rejets</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SG - COTE D IVOIRE</t>
+          <t>SG - BENIN</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -544,37 +576,46 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>72681594150101332418418</t>
+          <t>ACHAT</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>059369</t>
+          <t>2024-10-09</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024-05-28</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>84000</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
           <t>XOF</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>COUNTRY CODE INVALID FOR BUSINESS SERVICE ARRANGEMENT 4384001 AND ACCEPTANCE BRAND ID CODE 00000118 D0043 S06 DMC. INTERCHANGE RATE DESIGNATOR AND PROCESSING CODE/REVERSAL INDICATOR COMBINATION INVALID FOR 00000118 P0158 S04 BUSINESS SERVICE ARRANGEMENT 2060001 AND ACCEPTANCE BRAND ID CODE DMC.</t>
-        </is>
+      <c r="F2" t="n">
+        <v>34</v>
+      </c>
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t>3,695,271.00</t>
+        </is>
+      </c>
+      <c r="H2" s="5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="I2" s="4" t="n"/>
+      <c r="J2" s="4" t="inlineStr">
+        <is>
+          <t>3,695,271.00</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SG - COTE D IVOIRE</t>
+          <t>SG - BURKINA FASO</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -584,71 +625,525 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>72681594150101332421271</t>
+          <t>ACHAT</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>059347</t>
+          <t>2024-10-09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024-05-28</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>25000</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
           <t>XOF</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>COUNTRY CODE INVALID FOR BUSINESS SERVICE ARRANGEMENT 4384001 AND ACCEPTANCE BRAND ID CODE 00000124 D0043 S06 DMC. INTERCHANGE RATE DESIGNATOR AND PROCESSING CODE/REVERSAL INDICATOR COMBINATION INVALID FOR 00000124 P0158 S04 BUSINESS SERVICE ARRANGEMENT 2060001 AND ACCEPTANCE BRAND ID CODE DMC.</t>
-        </is>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>452,946.00</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="I3" s="4" t="n"/>
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t>452,946.00</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>SG - CAMEROUN</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MASTERCARD INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ACHAT</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>XAF</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>131</v>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>10,422,472.00</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="I4" s="4" t="n"/>
+      <c r="J4" s="4" t="inlineStr">
+        <is>
+          <t>10,422,472.00</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>SG - COTE D IVOIRE</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>MASTERCARD INTERNATIONAL</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>72681594150101332383190</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>059403</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2024-05-28</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>435000</v>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>XOF</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>COUNTRY CODE INVALID FOR BUSINESS SERVICE ARRANGEMENT 4384001 AND ACCEPTANCE BRAND ID CODE 00000258 D0043 S06 DMC. INTERCHANGE RATE DESIGNATOR AND PROCESSING CODE/REVERSAL INDICATOR COMBINATION INVALID FOR 00000258 P0158 S04 BUSINESS SERVICE ARRANGEMENT 2060001 AND ACCEPTANCE BRAND ID CODE DMC.</t>
-        </is>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>153,000.00</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="I5" s="4" t="n"/>
+      <c r="J5" s="4" t="inlineStr">
+        <is>
+          <t>153,000.00</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SG - COTE D IVOIRE</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MASTERCARD INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ACHAT</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>XOF</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>299</v>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>29,341,201.00</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="I6" s="4" t="n"/>
+      <c r="J6" s="4" t="inlineStr">
+        <is>
+          <t>29,341,201.00</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SG - GUINEE CONAKRY</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MASTERCARD INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ACHAT</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>GNF</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>39</v>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>52,536,015.00</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="I7" s="4" t="n"/>
+      <c r="J7" s="4" t="inlineStr">
+        <is>
+          <t>52,536,015.00</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SG - GUINEE EQUATORIALE</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MASTERCARD INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ACHAT</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>XAF</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>29</v>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t>4,740,458.00</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="I8" s="4" t="n"/>
+      <c r="J8" s="4" t="inlineStr">
+        <is>
+          <t>4,740,458.00</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SG - MADAGASCAR</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MASTERCARD INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ACHAT</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>59</v>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t>8,489.16</t>
+        </is>
+      </c>
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="I9" s="4" t="n"/>
+      <c r="J9" s="4" t="inlineStr">
+        <is>
+          <t>8,489.16</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SG - MADAGASCAR</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MASTERCARD INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ACHAT</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MGA</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>378</v>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t>173,568,366.00</t>
+        </is>
+      </c>
+      <c r="H10" s="5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="I10" s="4" t="n"/>
+      <c r="J10" s="4" t="inlineStr">
+        <is>
+          <t>173,568,366.00</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SG - MADAGASCAR</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MASTERCARD INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CASH ADVANCE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MGA</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>8</v>
+      </c>
+      <c r="G11" s="4" t="inlineStr">
+        <is>
+          <t>32,670,000.00</t>
+        </is>
+      </c>
+      <c r="H11" s="5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="I11" s="4" t="n"/>
+      <c r="J11" s="4" t="inlineStr">
+        <is>
+          <t>32,670,000.00</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SG - SENEGAL</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MASTERCARD INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ACHAT</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>XOF</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>132</v>
+      </c>
+      <c r="G12" s="4" t="inlineStr">
+        <is>
+          <t>23,323,607.00</t>
+        </is>
+      </c>
+      <c r="H12" s="5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="I12" s="4" t="n"/>
+      <c r="J12" s="4" t="inlineStr">
+        <is>
+          <t>23,323,607.00</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SG - TCHAD</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MASTERCARD INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ACHAT</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>XAF</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>8</v>
+      </c>
+      <c r="G13" s="4" t="inlineStr">
+        <is>
+          <t>2,733,321.00</t>
+        </is>
+      </c>
+      <c r="H13" s="5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="I13" s="4" t="n"/>
+      <c r="J13" s="4" t="inlineStr">
+        <is>
+          <t>2,733,321.00</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/styled_data.xlsx
+++ b/styled_data.xlsx
@@ -166,8 +166,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H3" headerRowCount="1">
-  <autoFilter ref="A1:H3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H4" headerRowCount="1">
+  <autoFilter ref="A1:H4"/>
   <tableColumns count="8">
     <tableColumn id="1" name="FILIALE"/>
     <tableColumn id="2" name="RESEAU"/>
@@ -471,7 +471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,21 +544,21 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>72681594284101466150299</t>
+          <t>72681594150101332418418</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>138682</t>
+          <t>059369</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-05-28</t>
         </is>
       </c>
       <c r="F2" s="4" t="n">
-        <v>11788</v>
+        <v>84000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -567,7 +567,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>INTERCHANGE RATE DESIGNATOR AND PROCESSING CODE/REVERSAL INDICATOR COMBINATION INVALID FOR 00000274 P0158 S04 BUSINESS SERVICE ARRANGEMENT 1060201 AND ACCEPTANCE BRAND ID CODE MCC.</t>
+          <t>COUNTRY CODE INVALID FOR BUSINESS SERVICE ARRANGEMENT 4384001 AND ACCEPTANCE BRAND ID CODE 00000118 D0043 S06 DMC. INTERCHANGE RATE DESIGNATOR AND PROCESSING CODE/REVERSAL INDICATOR COMBINATION INVALID FOR 00000118 P0158 S04 BUSINESS SERVICE ARRANGEMENT 2060001 AND ACCEPTANCE BRAND ID CODE DMC.</t>
         </is>
       </c>
     </row>
@@ -584,21 +584,21 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>72681594284101466161692</t>
+          <t>72681594150101332421271</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>024280</t>
+          <t>059347</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-05-28</t>
         </is>
       </c>
       <c r="F3" s="4" t="n">
-        <v>22500</v>
+        <v>25000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -607,7 +607,47 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>COUNTRY CODE INVALID FOR BUSINESS SERVICE ARRANGEMENT 4384001 AND ACCEPTANCE BRAND ID CODE 00000319 D0043 S06 DMC. INTERCHANGE RATE DESIGNATOR AND PROCESSING CODE/REVERSAL INDICATOR COMBINATION INVALID FOR 00000319 P0158 S04 BUSINESS SERVICE ARRANGEMENT 2060001 AND ACCEPTANCE BRAND ID CODE DMC.</t>
+          <t>COUNTRY CODE INVALID FOR BUSINESS SERVICE ARRANGEMENT 4384001 AND ACCEPTANCE BRAND ID CODE 00000124 D0043 S06 DMC. INTERCHANGE RATE DESIGNATOR AND PROCESSING CODE/REVERSAL INDICATOR COMBINATION INVALID FOR 00000124 P0158 S04 BUSINESS SERVICE ARRANGEMENT 2060001 AND ACCEPTANCE BRAND ID CODE DMC.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SG - COTE D IVOIRE</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MASTERCARD INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>72681594150101332383190</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>059403</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>435000</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>XOF</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>COUNTRY CODE INVALID FOR BUSINESS SERVICE ARRANGEMENT 4384001 AND ACCEPTANCE BRAND ID CODE 00000258 D0043 S06 DMC. INTERCHANGE RATE DESIGNATOR AND PROCESSING CODE/REVERSAL INDICATOR COMBINATION INVALID FOR 00000258 P0158 S04 BUSINESS SERVICE ARRANGEMENT 2060001 AND ACCEPTANCE BRAND ID CODE DMC.</t>
         </is>
       </c>
     </row>

--- a/styled_data.xlsx
+++ b/styled_data.xlsx
@@ -166,8 +166,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H4" headerRowCount="1">
-  <autoFilter ref="A1:H4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H2" headerRowCount="1">
+  <autoFilter ref="A1:H2"/>
   <tableColumns count="8">
     <tableColumn id="1" name="FILIALE"/>
     <tableColumn id="2" name="RESEAU"/>
@@ -471,7 +471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,21 +544,21 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>72681594150101332418418</t>
+          <t>72681594290101470231590</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>059369</t>
+          <t>143639</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024-05-28</t>
+          <t>2024-10-15</t>
         </is>
       </c>
       <c r="F2" s="4" t="n">
-        <v>84000</v>
+        <v>92600</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -567,87 +567,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>COUNTRY CODE INVALID FOR BUSINESS SERVICE ARRANGEMENT 4384001 AND ACCEPTANCE BRAND ID CODE 00000118 D0043 S06 DMC. INTERCHANGE RATE DESIGNATOR AND PROCESSING CODE/REVERSAL INDICATOR COMBINATION INVALID FOR 00000118 P0158 S04 BUSINESS SERVICE ARRANGEMENT 2060001 AND ACCEPTANCE BRAND ID CODE DMC.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>SG - COTE D IVOIRE</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>MASTERCARD INTERNATIONAL</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>72681594150101332421271</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>059347</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2024-05-28</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>25000</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>XOF</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>COUNTRY CODE INVALID FOR BUSINESS SERVICE ARRANGEMENT 4384001 AND ACCEPTANCE BRAND ID CODE 00000124 D0043 S06 DMC. INTERCHANGE RATE DESIGNATOR AND PROCESSING CODE/REVERSAL INDICATOR COMBINATION INVALID FOR 00000124 P0158 S04 BUSINESS SERVICE ARRANGEMENT 2060001 AND ACCEPTANCE BRAND ID CODE DMC.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>SG - COTE D IVOIRE</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MASTERCARD INTERNATIONAL</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>72681594150101332383190</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>059403</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2024-05-28</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>435000</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>XOF</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>COUNTRY CODE INVALID FOR BUSINESS SERVICE ARRANGEMENT 4384001 AND ACCEPTANCE BRAND ID CODE 00000258 D0043 S06 DMC. INTERCHANGE RATE DESIGNATOR AND PROCESSING CODE/REVERSAL INDICATOR COMBINATION INVALID FOR 00000258 P0158 S04 BUSINESS SERVICE ARRANGEMENT 2060001 AND ACCEPTANCE BRAND ID CODE DMC.</t>
+          <t>COUNTRY CODE INVALID FOR BUSINESS SERVICE ARRANGEMENT 4384001 AND ACCEPTANCE BRAND ID CODE 00000002 D0043 S06 DMC. INTERCHANGE RATE DESIGNATOR AND PROCESSING CODE/REVERSAL INDICATOR COMBINATION INVALID FOR 00000002 P0158 S04 BUSINESS SERVICE ARRANGEMENT 2060001 AND ACCEPTANCE BRAND ID CODE DMC.</t>
         </is>
       </c>
     </row>

--- a/styled_data.xlsx
+++ b/styled_data.xlsx
@@ -166,8 +166,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H2" headerRowCount="1">
-  <autoFilter ref="A1:H2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H4" headerRowCount="1">
+  <autoFilter ref="A1:H4"/>
   <tableColumns count="8">
     <tableColumn id="1" name="FILIALE"/>
     <tableColumn id="2" name="RESEAU"/>
@@ -471,7 +471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,21 +544,21 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>72681594290101470231590</t>
+          <t>72681594150101332418418</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>143639</t>
+          <t>059369</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-05-28</t>
         </is>
       </c>
       <c r="F2" s="4" t="n">
-        <v>92600</v>
+        <v>84000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -567,7 +567,87 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>COUNTRY CODE INVALID FOR BUSINESS SERVICE ARRANGEMENT 4384001 AND ACCEPTANCE BRAND ID CODE 00000002 D0043 S06 DMC. INTERCHANGE RATE DESIGNATOR AND PROCESSING CODE/REVERSAL INDICATOR COMBINATION INVALID FOR 00000002 P0158 S04 BUSINESS SERVICE ARRANGEMENT 2060001 AND ACCEPTANCE BRAND ID CODE DMC.</t>
+          <t>COUNTRY CODE INVALID FOR BUSINESS SERVICE ARRANGEMENT 4384001 AND ACCEPTANCE BRAND ID CODE 00000118 D0043 S06 DMC. INTERCHANGE RATE DESIGNATOR AND PROCESSING CODE/REVERSAL INDICATOR COMBINATION INVALID FOR 00000118 P0158 S04 BUSINESS SERVICE ARRANGEMENT 2060001 AND ACCEPTANCE BRAND ID CODE DMC.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SG - COTE D IVOIRE</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MASTERCARD INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>72681594150101332421271</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>059347</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>XOF</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>COUNTRY CODE INVALID FOR BUSINESS SERVICE ARRANGEMENT 4384001 AND ACCEPTANCE BRAND ID CODE 00000124 D0043 S06 DMC. INTERCHANGE RATE DESIGNATOR AND PROCESSING CODE/REVERSAL INDICATOR COMBINATION INVALID FOR 00000124 P0158 S04 BUSINESS SERVICE ARRANGEMENT 2060001 AND ACCEPTANCE BRAND ID CODE DMC.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SG - COTE D IVOIRE</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MASTERCARD INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>72681594150101332383190</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>059403</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>435000</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>XOF</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>COUNTRY CODE INVALID FOR BUSINESS SERVICE ARRANGEMENT 4384001 AND ACCEPTANCE BRAND ID CODE 00000258 D0043 S06 DMC. INTERCHANGE RATE DESIGNATOR AND PROCESSING CODE/REVERSAL INDICATOR COMBINATION INVALID FOR 00000258 P0158 S04 BUSINESS SERVICE ARRANGEMENT 2060001 AND ACCEPTANCE BRAND ID CODE DMC.</t>
         </is>
       </c>
     </row>

--- a/styled_data.xlsx
+++ b/styled_data.xlsx
@@ -1,12 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -25,12 +26,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
@@ -59,19 +55,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -91,7 +78,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -166,8 +153,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H4" headerRowCount="1">
-  <autoFilter ref="A1:H4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H5" headerRowCount="1">
+  <autoFilter ref="A1:H5"/>
   <tableColumns count="8">
     <tableColumn id="1" name="FILIALE"/>
     <tableColumn id="2" name="RESEAU"/>
@@ -466,14 +453,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -544,21 +531,21 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>72681594150101332418418</t>
+          <t>72681594351101529024026</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>059369</t>
+          <t>006502</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024-05-28</t>
+          <t>2024-12-15</t>
         </is>
       </c>
       <c r="F2" s="4" t="n">
-        <v>84000</v>
+        <v>50000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -567,7 +554,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>COUNTRY CODE INVALID FOR BUSINESS SERVICE ARRANGEMENT 4384001 AND ACCEPTANCE BRAND ID CODE 00000118 D0043 S06 DMC. INTERCHANGE RATE DESIGNATOR AND PROCESSING CODE/REVERSAL INDICATOR COMBINATION INVALID FOR 00000118 P0158 S04 BUSINESS SERVICE ARRANGEMENT 2060001 AND ACCEPTANCE BRAND ID CODE DMC.</t>
+          <t>COUNTRY CODE INVALID FOR BUSINESS SERVICE ARRANGEMENT 4384001 AND ACCEPTANCE BRAND ID CODE 00000006 D0043 S06 DMC. INTERCHANGE RATE DESIGNATOR AND PROCESSING CODE/REVERSAL INDICATOR COMBINATION INVALID FOR 00000006 P0158 S04 BUSINESS SERVICE ARRANGEMENT 2060001 AND ACCEPTANCE BRAND ID CODE DMC.</t>
         </is>
       </c>
     </row>
@@ -584,21 +571,21 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>72681594150101332421271</t>
+          <t>72681594351101528980095</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>059347</t>
+          <t>006738</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024-05-28</t>
+          <t>2024-12-15</t>
         </is>
       </c>
       <c r="F3" s="4" t="n">
-        <v>25000</v>
+        <v>9500</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -607,14 +594,14 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>COUNTRY CODE INVALID FOR BUSINESS SERVICE ARRANGEMENT 4384001 AND ACCEPTANCE BRAND ID CODE 00000124 D0043 S06 DMC. INTERCHANGE RATE DESIGNATOR AND PROCESSING CODE/REVERSAL INDICATOR COMBINATION INVALID FOR 00000124 P0158 S04 BUSINESS SERVICE ARRANGEMENT 2060001 AND ACCEPTANCE BRAND ID CODE DMC.</t>
+          <t>COUNTRY CODE INVALID FOR BUSINESS SERVICE ARRANGEMENT 4384001 AND ACCEPTANCE BRAND ID CODE 00000280 D0043 S06 DMC. INTERCHANGE RATE DESIGNATOR AND PROCESSING CODE/REVERSAL INDICATOR COMBINATION INVALID FOR 00000280 P0158 S04 BUSINESS SERVICE ARRANGEMENT 2060001 AND ACCEPTANCE BRAND ID CODE DMC.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SG - COTE D IVOIRE</t>
+          <t>SG - SENEGAL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -624,21 +611,21 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>72681594150101332383190</t>
+          <t>72714314350101528402251</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>059403</t>
+          <t>118782</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024-05-28</t>
+          <t>2024-12-14</t>
         </is>
       </c>
       <c r="F4" s="4" t="n">
-        <v>435000</v>
+        <v>25500</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -647,14 +634,54 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>COUNTRY CODE INVALID FOR BUSINESS SERVICE ARRANGEMENT 4384001 AND ACCEPTANCE BRAND ID CODE 00000258 D0043 S06 DMC. INTERCHANGE RATE DESIGNATOR AND PROCESSING CODE/REVERSAL INDICATOR COMBINATION INVALID FOR 00000258 P0158 S04 BUSINESS SERVICE ARRANGEMENT 2060001 AND ACCEPTANCE BRAND ID CODE DMC.</t>
+          <t>GCMS PRODUCT ID TCS INVALID FOR BUSINESS SERVICE ARRANGEMENT 1060501 AND ACCEPTANCE BRAND 00000004 D0002 ID CODE MCC FOR INTERCHANGE PROGRAM.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SG - MADAGASCAR</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MASTERCARD INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>72705884349101527583546</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>730301</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2024-12-13</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>83212</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>MGA</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>GCMS PRODUCT ID TCS INVALID FOR BUSINESS SERVICE ARRANGEMENT 1060501 AND ACCEPTANCE BRAND 00000044 D0002 ID CODE MCC FOR INTERCHANGE PROGRAM.</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/styled_data.xlsx
+++ b/styled_data.xlsx
@@ -33,7 +33,7 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -43,6 +43,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="004F81BD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ffe26b0a"/>
+        <bgColor rgb="ffe26b0a"/>
       </patternFill>
     </fill>
   </fills>
@@ -64,7 +70,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -76,6 +82,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -153,17 +162,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H5" headerRowCount="1">
-  <autoFilter ref="A1:H5"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L15" headerRowCount="1">
+  <autoFilter ref="A1:L15"/>
+  <tableColumns count="12">
     <tableColumn id="1" name="FILIALE"/>
-    <tableColumn id="2" name="RESEAU"/>
-    <tableColumn id="3" name="ARN"/>
-    <tableColumn id="4" name="Autorisation"/>
-    <tableColumn id="5" name="Date Transaction"/>
-    <tableColumn id="6" name="Montant"/>
-    <tableColumn id="7" name="Devise"/>
-    <tableColumn id="8" name="Motif"/>
+    <tableColumn id="2" name="Réseau"/>
+    <tableColumn id="3" name="Type"/>
+    <tableColumn id="4" name="Date"/>
+    <tableColumn id="5" name="Devise"/>
+    <tableColumn id="6" name="NbreTotaleDeTransactions"/>
+    <tableColumn id="7" name="Montant Total de Transactions"/>
+    <tableColumn id="8" name="Rapprochement"/>
+    <tableColumn id="9" name="Nbre Total de Rejets"/>
+    <tableColumn id="10" name="Montant de Rejets"/>
+    <tableColumn id="11" name="Nbre de Transactions (Couverture)"/>
+    <tableColumn id="12" name="Montant de Transactions (Couverture)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
 </table>
@@ -458,7 +471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,14 +479,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="26" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="297" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="26" customWidth="1" min="6" max="6"/>
+    <col width="31" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="22" customWidth="1" min="9" max="9"/>
+    <col width="19" customWidth="1" min="10" max="10"/>
+    <col width="35" customWidth="1" min="11" max="11"/>
+    <col width="38" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -484,198 +501,753 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>RESEAU</t>
+          <t>Réseau</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>ARN</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>Autorisation</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>Date Transaction</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Montant</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>Devise</t>
         </is>
       </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>NbreTotaleDeTransactions</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Montant Total de Transactions</t>
+        </is>
+      </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>Motif</t>
+          <t>Rapprochement</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Nbre Total de Rejets</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Montant de Rejets</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>Nbre de Transactions (Couverture)</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>Montant de Transactions (Couverture)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SG - COTE D IVOIRE</t>
+          <t>SG - BENIN</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MASTERCARD INTERNATIONAL</t>
+          <t>VISA INTERNATIONAL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>72681594351101529024026</t>
+          <t>ACHAT</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>006502</t>
+          <t>01-DEC-24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024-12-15</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
           <t>XOF</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>COUNTRY CODE INVALID FOR BUSINESS SERVICE ARRANGEMENT 4384001 AND ACCEPTANCE BRAND ID CODE 00000006 D0043 S06 DMC. INTERCHANGE RATE DESIGNATOR AND PROCESSING CODE/REVERSAL INDICATOR COMBINATION INVALID FOR 00000006 P0158 S04 BUSINESS SERVICE ARRANGEMENT 2060001 AND ACCEPTANCE BRAND ID CODE DMC.</t>
-        </is>
+      <c r="F2" t="n">
+        <v>185</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>22083655</v>
+      </c>
+      <c r="H2" s="5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>185</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>22083655</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SG - COTE D IVOIRE</t>
+          <t>SG - BURKINA FASO</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MASTERCARD INTERNATIONAL</t>
+          <t>VISA INTERNATIONAL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>72681594351101528980095</t>
+          <t>ACHAT</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>006738</t>
+          <t>01-DEC-24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024-12-15</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>9500</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
           <t>XOF</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>COUNTRY CODE INVALID FOR BUSINESS SERVICE ARRANGEMENT 4384001 AND ACCEPTANCE BRAND ID CODE 00000280 D0043 S06 DMC. INTERCHANGE RATE DESIGNATOR AND PROCESSING CODE/REVERSAL INDICATOR COMBINATION INVALID FOR 00000280 P0158 S04 BUSINESS SERVICE ARRANGEMENT 2060001 AND ACCEPTANCE BRAND ID CODE DMC.</t>
-        </is>
+      <c r="F3" t="n">
+        <v>28</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>3361179</v>
+      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>28</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>3361179</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>SG - SENEGAL</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MASTERCARD INTERNATIONAL</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>72714314350101528402251</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>118782</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2024-12-14</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>25500</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>XOF</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>GCMS PRODUCT ID TCS INVALID FOR BUSINESS SERVICE ARRANGEMENT 1060501 AND ACCEPTANCE BRAND 00000004 D0002 ID CODE MCC FOR INTERCHANGE PROGRAM.</t>
-        </is>
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>SG - CAMEROUN</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>VISA INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>ACHAT</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>01-DEC-24</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>XAF</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>493</v>
+      </c>
+      <c r="G4" s="7" t="n">
+        <v>36214834</v>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>not ok</t>
+        </is>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>492</v>
+      </c>
+      <c r="L4" s="7" t="n">
+        <v>36214833</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>SG - CONGO</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>VISA INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ACHAT</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>01-DEC-24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>XAF</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>57</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>3332863</v>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>57</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>3332863</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SG - COTE D IVOIRE</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>VISA INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>01-DEC-24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>XOF</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>1460000</v>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>1460000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>SG - COTE D IVOIRE</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>VISA INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>ACHAT</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>01-DEC-24</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>XOF</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>1041</v>
+      </c>
+      <c r="G7" s="7" t="n">
+        <v>130207184</v>
+      </c>
+      <c r="H7" s="6" t="inlineStr">
+        <is>
+          <t>not ok</t>
+        </is>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>1038</v>
+      </c>
+      <c r="L7" s="7" t="n">
+        <v>130207181</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SG - GUINEE CONAKRY</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>VISA INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ACHAT</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>01-DEC-24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>GNF</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>249</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>222401380</v>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>249</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>222401380</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SG - GUINEE CONAKRY</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>VISA INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CASH ADVANCE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>01-DEC-24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>GNF</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4" t="n">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SG - GUINEE EQUATORIALE</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>VISA INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ACHAT</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>01-DEC-24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>XAF</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>47</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>5696303</v>
+      </c>
+      <c r="H10" s="5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>47</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>5696303</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>SG - MADAGASCAR</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>MASTERCARD INTERNATIONAL</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>72705884349101527583546</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>730301</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2024-12-13</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>83212</v>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>VISA INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ACHAT</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>01-DEC-24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>84</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>2661.15</v>
+      </c>
+      <c r="H11" s="5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>84</v>
+      </c>
+      <c r="L11" s="4" t="n">
+        <v>2661.15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SG - MADAGASCAR</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>VISA INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ACHAT</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>01-DEC-24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>MGA</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>GCMS PRODUCT ID TCS INVALID FOR BUSINESS SERVICE ARRANGEMENT 1060501 AND ACCEPTANCE BRAND 00000044 D0002 ID CODE MCC FOR INTERCHANGE PROGRAM.</t>
-        </is>
+      <c r="F12" t="n">
+        <v>2398</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>715658981</v>
+      </c>
+      <c r="H12" s="5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2398</v>
+      </c>
+      <c r="L12" s="4" t="n">
+        <v>715658981</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SG - MADAGASCAR</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>VISA INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CASH ADVANCE</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>01-DEC-24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>MGA</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>21730000</v>
+      </c>
+      <c r="H13" s="5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5</v>
+      </c>
+      <c r="L13" s="4" t="n">
+        <v>21730000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SG - SENEGAL</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>VISA INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ACHAT</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>01-DEC-24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>XOF</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>538</v>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v>59434307</v>
+      </c>
+      <c r="H14" s="5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>538</v>
+      </c>
+      <c r="L14" s="4" t="n">
+        <v>59434307</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SG - TCHAD</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>VISA INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ACHAT</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>01-DEC-24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>XAF</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>21</v>
+      </c>
+      <c r="G15" s="4" t="n">
+        <v>5511034</v>
+      </c>
+      <c r="H15" s="5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>21</v>
+      </c>
+      <c r="L15" s="4" t="n">
+        <v>5511034</v>
       </c>
     </row>
   </sheetData>

--- a/styled_data.xlsx
+++ b/styled_data.xlsx
@@ -82,9 +82,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -162,8 +162,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L15" headerRowCount="1">
-  <autoFilter ref="A1:L15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L13" headerRowCount="1">
+  <autoFilter ref="A1:L13"/>
   <tableColumns count="12">
     <tableColumn id="1" name="FILIALE"/>
     <tableColumn id="2" name="Réseau"/>
@@ -471,7 +471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,53 +556,59 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>SG - BENIN</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>VISA INTERNATIONAL</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>ACHAT</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>01-DEC-24</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>17-DEC-24</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>XOF</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="5" t="n">
         <v>185</v>
       </c>
-      <c r="G2" s="4" t="n">
-        <v>22083655</v>
+      <c r="G2" s="6" t="inlineStr">
+        <is>
+          <t>11827276.0</t>
+        </is>
       </c>
       <c r="H2" s="5" t="inlineStr">
         <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>185</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>22083655</v>
+          <t>not ok</t>
+        </is>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K2" s="5" t="n">
+        <v>184</v>
+      </c>
+      <c r="L2" s="6" t="inlineStr">
+        <is>
+          <t>11827275.0</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -623,7 +629,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>01-DEC-24</t>
+          <t>17-DEC-24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -632,12 +638,14 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>28</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>3361179</v>
-      </c>
-      <c r="H3" s="5" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>299101.0</t>
+        </is>
+      </c>
+      <c r="H3" s="7" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -645,64 +653,74 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" s="4" t="n">
-        <v>0</v>
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="K3" t="n">
-        <v>28</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>3361179</v>
+        <v>4</v>
+      </c>
+      <c r="L3" s="4" t="inlineStr">
+        <is>
+          <t>299101.0</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>SG - CAMEROUN</t>
         </is>
       </c>
-      <c r="B4" s="6" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>VISA INTERNATIONAL</t>
         </is>
       </c>
-      <c r="C4" s="6" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>ACHAT</t>
         </is>
       </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>01-DEC-24</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>17-DEC-24</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
         <is>
           <t>XAF</t>
         </is>
       </c>
-      <c r="F4" s="6" t="n">
-        <v>493</v>
-      </c>
-      <c r="G4" s="7" t="n">
-        <v>36214834</v>
-      </c>
-      <c r="H4" s="6" t="inlineStr">
+      <c r="F4" s="5" t="n">
+        <v>359</v>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>32394490.0</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
         <is>
           <t>not ok</t>
         </is>
       </c>
-      <c r="I4" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="6" t="n">
-        <v>492</v>
-      </c>
-      <c r="L4" s="7" t="n">
-        <v>36214833</v>
+      <c r="I4" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" s="6" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>353</v>
+      </c>
+      <c r="L4" s="6" t="inlineStr">
+        <is>
+          <t>32394484.0</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -723,7 +741,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>01-DEC-24</t>
+          <t>17-DEC-24</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -732,12 +750,14 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>57</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>3332863</v>
-      </c>
-      <c r="H5" s="5" t="inlineStr">
+        <v>16</v>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>1960838.0</t>
+        </is>
+      </c>
+      <c r="H5" s="7" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -745,14 +765,18 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" s="4" t="n">
-        <v>0</v>
+      <c r="J5" s="4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="K5" t="n">
-        <v>57</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>3332863</v>
+        <v>16</v>
+      </c>
+      <c r="L5" s="4" t="inlineStr">
+        <is>
+          <t>1960838.0</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -766,9 +790,14 @@
           <t>VISA INTERNATIONAL</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ACHAT</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>01-DEC-24</t>
+          <t>17-DEC-24</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -777,12 +806,14 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1460000</v>
-      </c>
-      <c r="H6" s="5" t="inlineStr">
+        <v>633</v>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>80126405.0</t>
+        </is>
+      </c>
+      <c r="H6" s="7" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -790,70 +821,80 @@
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" s="4" t="n">
-        <v>0</v>
+      <c r="J6" s="4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1460000</v>
+        <v>633</v>
+      </c>
+      <c r="L6" s="4" t="inlineStr">
+        <is>
+          <t>80126405.0</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="inlineStr">
-        <is>
-          <t>SG - COTE D IVOIRE</t>
-        </is>
-      </c>
-      <c r="B7" s="6" t="inlineStr">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SG - GUINEE CONAKRY</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>VISA INTERNATIONAL</t>
         </is>
       </c>
-      <c r="C7" s="6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>ACHAT</t>
         </is>
       </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>01-DEC-24</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>XOF</t>
-        </is>
-      </c>
-      <c r="F7" s="6" t="n">
-        <v>1041</v>
-      </c>
-      <c r="G7" s="7" t="n">
-        <v>130207184</v>
-      </c>
-      <c r="H7" s="6" t="inlineStr">
-        <is>
-          <t>not ok</t>
-        </is>
-      </c>
-      <c r="I7" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="J7" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" s="6" t="n">
-        <v>1038</v>
-      </c>
-      <c r="L7" s="7" t="n">
-        <v>130207181</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17-DEC-24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>GNF</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>128</v>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>92072937.0</t>
+        </is>
+      </c>
+      <c r="H7" s="7" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>128</v>
+      </c>
+      <c r="L7" s="4" t="inlineStr">
+        <is>
+          <t>92072937.0</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SG - GUINEE CONAKRY</t>
+          <t>SG - GUINEE EQUATORIALE</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -868,21 +909,23 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>01-DEC-24</t>
+          <t>17-DEC-24</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>GNF</t>
+          <t>XAF</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>249</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>222401380</v>
-      </c>
-      <c r="H8" s="5" t="inlineStr">
+        <v>23</v>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t>2851830.0</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -890,20 +933,24 @@
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" s="4" t="n">
-        <v>0</v>
+      <c r="J8" s="4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="K8" t="n">
-        <v>249</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>222401380</v>
+        <v>23</v>
+      </c>
+      <c r="L8" s="4" t="inlineStr">
+        <is>
+          <t>2851830.0</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SG - GUINEE CONAKRY</t>
+          <t>SG - MADAGASCAR</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -913,26 +960,28 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CASH ADVANCE</t>
+          <t>ACHAT</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>01-DEC-24</t>
+          <t>17-DEC-24</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>GNF</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="H9" s="5" t="inlineStr">
+        <v>57</v>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t>1548.2</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -940,20 +989,24 @@
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="4" t="n">
-        <v>0</v>
+      <c r="J9" s="4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1500000</v>
+        <v>57</v>
+      </c>
+      <c r="L9" s="4" t="inlineStr">
+        <is>
+          <t>1548.2</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SG - GUINEE EQUATORIALE</t>
+          <t>SG - MADAGASCAR</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -968,21 +1021,23 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>01-DEC-24</t>
+          <t>17-DEC-24</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>XAF</t>
+          <t>MGA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>47</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>5696303</v>
-      </c>
-      <c r="H10" s="5" t="inlineStr">
+        <v>1330</v>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t>439093418.0</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -990,14 +1045,18 @@
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" s="4" t="n">
-        <v>0</v>
+      <c r="J10" s="4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="K10" t="n">
-        <v>47</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>5696303</v>
+        <v>1330</v>
+      </c>
+      <c r="L10" s="4" t="inlineStr">
+        <is>
+          <t>439093418.0</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1013,26 +1072,28 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ACHAT</t>
+          <t>CASH ADVANCE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>01-DEC-24</t>
+          <t>17-DEC-24</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>MGA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>84</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>2661.15</v>
-      </c>
-      <c r="H11" s="5" t="inlineStr">
+        <v>28</v>
+      </c>
+      <c r="G11" s="4" t="inlineStr">
+        <is>
+          <t>94287000.0</t>
+        </is>
+      </c>
+      <c r="H11" s="7" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -1040,20 +1101,24 @@
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" s="4" t="n">
-        <v>0</v>
+      <c r="J11" s="4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="K11" t="n">
-        <v>84</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>2661.15</v>
+        <v>28</v>
+      </c>
+      <c r="L11" s="4" t="inlineStr">
+        <is>
+          <t>94287000.0</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SG - MADAGASCAR</t>
+          <t>SG - SENEGAL</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1068,21 +1133,23 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>01-DEC-24</t>
+          <t>17-DEC-24</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MGA</t>
+          <t>XOF</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2398</v>
-      </c>
-      <c r="G12" s="4" t="n">
-        <v>715658981</v>
-      </c>
-      <c r="H12" s="5" t="inlineStr">
+        <v>543</v>
+      </c>
+      <c r="G12" s="4" t="inlineStr">
+        <is>
+          <t>53397119.0</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -1090,20 +1157,24 @@
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="4" t="n">
-        <v>0</v>
+      <c r="J12" s="4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="K12" t="n">
-        <v>2398</v>
-      </c>
-      <c r="L12" s="4" t="n">
-        <v>715658981</v>
+        <v>543</v>
+      </c>
+      <c r="L12" s="4" t="inlineStr">
+        <is>
+          <t>53397119.0</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SG - MADAGASCAR</t>
+          <t>SG - TCHAD</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1113,26 +1184,28 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CASH ADVANCE</t>
+          <t>ACHAT</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>01-DEC-24</t>
+          <t>17-DEC-24</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MGA</t>
+          <t>XAF</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G13" s="4" t="n">
-        <v>21730000</v>
-      </c>
-      <c r="H13" s="5" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="G13" s="4" t="inlineStr">
+        <is>
+          <t>97550.0</t>
+        </is>
+      </c>
+      <c r="H13" s="7" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -1140,114 +1213,18 @@
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" s="4" t="n">
-        <v>0</v>
+      <c r="J13" s="4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="K13" t="n">
-        <v>5</v>
-      </c>
-      <c r="L13" s="4" t="n">
-        <v>21730000</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>SG - SENEGAL</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>VISA INTERNATIONAL</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>ACHAT</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>01-DEC-24</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>XOF</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>538</v>
-      </c>
-      <c r="G14" s="4" t="n">
-        <v>59434307</v>
-      </c>
-      <c r="H14" s="5" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>538</v>
-      </c>
-      <c r="L14" s="4" t="n">
-        <v>59434307</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>SG - TCHAD</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>VISA INTERNATIONAL</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>ACHAT</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>01-DEC-24</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>XAF</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>21</v>
-      </c>
-      <c r="G15" s="4" t="n">
-        <v>5511034</v>
-      </c>
-      <c r="H15" s="5" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>21</v>
-      </c>
-      <c r="L15" s="4" t="n">
-        <v>5511034</v>
+        <v>4</v>
+      </c>
+      <c r="L13" s="4" t="inlineStr">
+        <is>
+          <t>97550.0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/styled_data.xlsx
+++ b/styled_data.xlsx
@@ -33,7 +33,7 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -43,12 +43,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="004F81BD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ffe26b0a"/>
-        <bgColor rgb="ffe26b0a"/>
       </patternFill>
     </fill>
   </fills>
@@ -70,7 +64,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -82,8 +76,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -162,8 +154,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L13" headerRowCount="1">
-  <autoFilter ref="A1:L13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L14" headerRowCount="1">
+  <autoFilter ref="A1:L14"/>
   <tableColumns count="12">
     <tableColumn id="1" name="FILIALE"/>
     <tableColumn id="2" name="Réseau"/>
@@ -471,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,58 +548,58 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>SG - BENIN</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>VISA INTERNATIONAL</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>ACHAT</t>
         </is>
       </c>
-      <c r="D2" s="5" t="inlineStr">
-        <is>
-          <t>17-DEC-24</t>
-        </is>
-      </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26-DEC-24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>XOF</t>
         </is>
       </c>
-      <c r="F2" s="5" t="n">
-        <v>185</v>
-      </c>
-      <c r="G2" s="6" t="inlineStr">
-        <is>
-          <t>11827276.0</t>
+      <c r="F2" t="n">
+        <v>87</v>
+      </c>
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t>12062828.0</t>
         </is>
       </c>
       <c r="H2" s="5" t="inlineStr">
         <is>
-          <t>not ok</t>
-        </is>
-      </c>
-      <c r="I2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="6" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="K2" s="5" t="n">
-        <v>184</v>
-      </c>
-      <c r="L2" s="6" t="inlineStr">
-        <is>
-          <t>11827275.0</t>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>87</v>
+      </c>
+      <c r="L2" s="4" t="inlineStr">
+        <is>
+          <t>12062828.0</t>
         </is>
       </c>
     </row>
@@ -629,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17-DEC-24</t>
+          <t>26-DEC-24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -638,14 +630,14 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t>299101.0</t>
-        </is>
-      </c>
-      <c r="H3" s="7" t="inlineStr">
+          <t>670500.0</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -659,67 +651,67 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L3" s="4" t="inlineStr">
         <is>
-          <t>299101.0</t>
+          <t>670500.0</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>SG - CAMEROUN</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>VISA INTERNATIONAL</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>ACHAT</t>
         </is>
       </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>17-DEC-24</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26-DEC-24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>XAF</t>
         </is>
       </c>
-      <c r="F4" s="5" t="n">
-        <v>359</v>
-      </c>
-      <c r="G4" s="6" t="inlineStr">
-        <is>
-          <t>32394490.0</t>
+      <c r="F4" t="n">
+        <v>326</v>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>23727938.0</t>
         </is>
       </c>
       <c r="H4" s="5" t="inlineStr">
         <is>
-          <t>not ok</t>
-        </is>
-      </c>
-      <c r="I4" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="J4" s="6" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="K4" s="5" t="n">
-        <v>353</v>
-      </c>
-      <c r="L4" s="6" t="inlineStr">
-        <is>
-          <t>32394484.0</t>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>326</v>
+      </c>
+      <c r="L4" s="4" t="inlineStr">
+        <is>
+          <t>23727938.0</t>
         </is>
       </c>
     </row>
@@ -741,7 +733,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>17-DEC-24</t>
+          <t>26-DEC-24</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -750,14 +742,14 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t>1960838.0</t>
-        </is>
-      </c>
-      <c r="H5" s="7" t="inlineStr">
+          <t>123670.0</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -771,11 +763,11 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="L5" s="4" t="inlineStr">
         <is>
-          <t>1960838.0</t>
+          <t>123670.0</t>
         </is>
       </c>
     </row>
@@ -797,7 +789,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>17-DEC-24</t>
+          <t>26-DEC-24</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -806,14 +798,14 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>633</v>
+        <v>448</v>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t>80126405.0</t>
-        </is>
-      </c>
-      <c r="H6" s="7" t="inlineStr">
+          <t>38584487.0</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -827,11 +819,11 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>633</v>
+        <v>448</v>
       </c>
       <c r="L6" s="4" t="inlineStr">
         <is>
-          <t>80126405.0</t>
+          <t>38584487.0</t>
         </is>
       </c>
     </row>
@@ -853,7 +845,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17-DEC-24</t>
+          <t>26-DEC-24</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -862,14 +854,14 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t>92072937.0</t>
-        </is>
-      </c>
-      <c r="H7" s="7" t="inlineStr">
+          <t>138515480.0</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -883,11 +875,11 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="L7" s="4" t="inlineStr">
         <is>
-          <t>92072937.0</t>
+          <t>138515480.0</t>
         </is>
       </c>
     </row>
@@ -909,7 +901,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>17-DEC-24</t>
+          <t>26-DEC-24</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -918,14 +910,14 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t>2851830.0</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr">
+          <t>222517.0</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -939,11 +931,11 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="L8" s="4" t="inlineStr">
         <is>
-          <t>2851830.0</t>
+          <t>222517.0</t>
         </is>
       </c>
     </row>
@@ -965,7 +957,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>17-DEC-24</t>
+          <t>26-DEC-24</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -974,14 +966,14 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t>1548.2</t>
-        </is>
-      </c>
-      <c r="H9" s="7" t="inlineStr">
+          <t>401.0</t>
+        </is>
+      </c>
+      <c r="H9" s="5" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -995,11 +987,11 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="L9" s="4" t="inlineStr">
         <is>
-          <t>1548.2</t>
+          <t>401.0</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1013,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>17-DEC-24</t>
+          <t>26-DEC-24</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1030,14 +1022,14 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1330</v>
+        <v>1043</v>
       </c>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t>439093418.0</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr">
+          <t>370783584.0</t>
+        </is>
+      </c>
+      <c r="H10" s="5" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -1051,11 +1043,11 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>1330</v>
+        <v>1043</v>
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
-          <t>439093418.0</t>
+          <t>370783584.0</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1069,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>17-DEC-24</t>
+          <t>26-DEC-24</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1086,14 +1078,14 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="G11" s="4" t="inlineStr">
         <is>
-          <t>94287000.0</t>
-        </is>
-      </c>
-      <c r="H11" s="7" t="inlineStr">
+          <t>2480000.0</t>
+        </is>
+      </c>
+      <c r="H11" s="5" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -1107,11 +1099,11 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="L11" s="4" t="inlineStr">
         <is>
-          <t>94287000.0</t>
+          <t>2480000.0</t>
         </is>
       </c>
     </row>
@@ -1126,14 +1118,9 @@
           <t>VISA INTERNATIONAL</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>ACHAT</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>17-DEC-24</t>
+          <t>26-DEC-24</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1142,14 +1129,14 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>543</v>
+        <v>1</v>
       </c>
       <c r="G12" s="4" t="inlineStr">
         <is>
-          <t>53397119.0</t>
-        </is>
-      </c>
-      <c r="H12" s="7" t="inlineStr">
+          <t>200000.0</t>
+        </is>
+      </c>
+      <c r="H12" s="5" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -1163,18 +1150,18 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>543</v>
+        <v>1</v>
       </c>
       <c r="L12" s="4" t="inlineStr">
         <is>
-          <t>53397119.0</t>
+          <t>200000.0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SG - TCHAD</t>
+          <t>SG - SENEGAL</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1189,23 +1176,23 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>17-DEC-24</t>
+          <t>26-DEC-24</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>XAF</t>
+          <t>XOF</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>410</v>
       </c>
       <c r="G13" s="4" t="inlineStr">
         <is>
-          <t>97550.0</t>
-        </is>
-      </c>
-      <c r="H13" s="7" t="inlineStr">
+          <t>43761798.0</t>
+        </is>
+      </c>
+      <c r="H13" s="5" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -1219,11 +1206,67 @@
         </is>
       </c>
       <c r="K13" t="n">
+        <v>410</v>
+      </c>
+      <c r="L13" s="4" t="inlineStr">
+        <is>
+          <t>43761798.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SG - TCHAD</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>VISA INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ACHAT</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>26-DEC-24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>XAF</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
         <v>4</v>
       </c>
-      <c r="L13" s="4" t="inlineStr">
-        <is>
-          <t>97550.0</t>
+      <c r="G14" s="4" t="inlineStr">
+        <is>
+          <t>145025.0</t>
+        </is>
+      </c>
+      <c r="H14" s="5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>4</v>
+      </c>
+      <c r="L14" s="4" t="inlineStr">
+        <is>
+          <t>145025.0</t>
         </is>
       </c>
     </row>

--- a/styled_data.xlsx
+++ b/styled_data.xlsx
@@ -149,8 +149,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F5" headerRowCount="1">
-  <autoFilter ref="A1:F5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F4" headerRowCount="1">
+  <autoFilter ref="A1:F4"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Filiale"/>
     <tableColumn id="2" name="ARN"/>
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,11 +460,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
     <col width="25" customWidth="1" min="2" max="2"/>
     <col width="20" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
     <col width="44" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -508,16 +508,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>74399724357101535635365</t>
+          <t>74399724366101545557798</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21/12/2024</t>
+          <t>30/12/2024</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1149390</v>
+        <v>425115</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -531,19 +531,6 @@
           <t>SG - CAMEROUN</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>74399724365101544422581</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>29/12/2024</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>55000</v>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>V0202 POS Entry Mode is ** invalid</t>
@@ -553,22 +540,28 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SG - CAMEROUN</t>
-        </is>
+          <t>SG - COTE D IVOIRE</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>74637414366101546447445</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>TKNVHL</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26/12/2024</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>92000</v>
       </c>
       <c r="F4" t="inlineStr">
-        <is>
-          <t>V0195 Authorization code is ****** invalid</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>SG - CAMEROUN</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
         <is>
           <t>V0202 POS Entry Mode is ** invalid</t>
         </is>

--- a/styled_data.xlsx
+++ b/styled_data.xlsx
@@ -1,13 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -26,14 +25,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -43,6 +50,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="004F81BD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ffe26b0a"/>
+        <bgColor rgb="ffe26b0a"/>
       </patternFill>
     </fill>
   </fills>
@@ -55,16 +68,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -72,9 +94,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -149,15 +178,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F4" headerRowCount="1">
-  <autoFilter ref="A1:F4"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="Filiale"/>
-    <tableColumn id="2" name="ARN"/>
-    <tableColumn id="3" name="Authorization code"/>
-    <tableColumn id="4" name="Transaction Date"/>
-    <tableColumn id="5" name="Amount"/>
-    <tableColumn id="6" name="Motif"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L14" headerRowCount="1">
+  <autoFilter ref="A1:L14"/>
+  <tableColumns count="12">
+    <tableColumn id="1" name="FILIALE"/>
+    <tableColumn id="2" name="Réseau"/>
+    <tableColumn id="3" name="Type"/>
+    <tableColumn id="4" name="Date"/>
+    <tableColumn id="5" name="Devise"/>
+    <tableColumn id="6" name="NbreTotaleDeTransactions"/>
+    <tableColumn id="7" name="Montant Total de Transactions"/>
+    <tableColumn id="8" name="Rapprochement"/>
+    <tableColumn id="9" name="Nbre Total de Rejets"/>
+    <tableColumn id="10" name="Montant de Rejets"/>
+    <tableColumn id="11" name="Nbre de Transactions (Couverture)"/>
+    <tableColumn id="12" name="Montant de Transactions (Couverture)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
 </table>
@@ -447,130 +482,822 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="44" customWidth="1" min="6" max="6"/>
+    <col width="26" customWidth="1" min="6" max="6"/>
+    <col width="31" customWidth="1" min="7" max="7"/>
+    <col width="44" customWidth="1" min="8" max="8"/>
+    <col width="22" customWidth="1" min="9" max="9"/>
+    <col width="19" customWidth="1" min="10" max="10"/>
+    <col width="35" customWidth="1" min="11" max="11"/>
+    <col width="38" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>Filiale</t>
+          <t>FILIALE</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>ARN</t>
+          <t>Réseau</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>Authorization code</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>Transaction Date</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Devise</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>Motif</t>
+          <t>NbreTotaleDeTransactions</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Montant Total de Transactions</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Rapprochement</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Nbre Total de Rejets</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Montant de Rejets</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>Nbre de Transactions (Couverture)</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>Montant de Transactions (Couverture)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SG - CAMEROUN</t>
+          <t>SG - BENIN</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>74399724366101545557798</t>
+          <t>VISA INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ACHAT</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>30/12/2024</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>425115</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>V0195 Authorization code is ****** invalid</t>
+          <t>29-DEC-24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>XOF</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>186</v>
+      </c>
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t>12980903.0</t>
+        </is>
+      </c>
+      <c r="H2" s="5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>186</v>
+      </c>
+      <c r="L2" s="4" t="inlineStr">
+        <is>
+          <t>12980903.0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SG - CAMEROUN</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>V0202 POS Entry Mode is ** invalid</t>
+          <t>SG - BURKINA FASO</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>VISA INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ACHAT</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29-DEC-24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>XOF</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>1438400.0</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>13</v>
+      </c>
+      <c r="L3" s="4" t="inlineStr">
+        <is>
+          <t>1438400.0</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>SG - CAMEROUN</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>VISA INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>ACHAT</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>29-DEC-24</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>XAF</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>470</v>
+      </c>
+      <c r="G4" s="7" t="inlineStr">
+        <is>
+          <t>36240736.0</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>not ok (avec tr.(s) rejetée(s) a extraire)</t>
+        </is>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>469</v>
+      </c>
+      <c r="L4" s="7" t="inlineStr">
+        <is>
+          <t>36240735.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SG - CONGO</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>VISA INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ACHAT</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29-DEC-24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>XAF</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>30</v>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>1627401.0</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>30</v>
+      </c>
+      <c r="L5" s="4" t="inlineStr">
+        <is>
+          <t>1627401.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>SG - COTE D IVOIRE</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>74637414366101546447445</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>TKNVHL</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>26/12/2024</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>92000</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>V0202 POS Entry Mode is ** invalid</t>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>VISA INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ACHAT</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29-DEC-24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>XOF</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>759</v>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>77549589.0</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>759</v>
+      </c>
+      <c r="L6" s="4" t="inlineStr">
+        <is>
+          <t>77549589.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SG - GUINEE CONAKRY</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>VISA INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ACHAT</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29-DEC-24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>GNF</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>170</v>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>201946045.0</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>170</v>
+      </c>
+      <c r="L7" s="4" t="inlineStr">
+        <is>
+          <t>201946045.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SG - GUINEE EQUATORIALE</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>VISA INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ACHAT</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29-DEC-24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>XAF</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>19</v>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t>1926658.0</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>19</v>
+      </c>
+      <c r="L8" s="4" t="inlineStr">
+        <is>
+          <t>1926658.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SG - MADAGASCAR</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>VISA INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ACHAT</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>29-DEC-24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>124</v>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t>2797.7</t>
+        </is>
+      </c>
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>124</v>
+      </c>
+      <c r="L9" s="4" t="inlineStr">
+        <is>
+          <t>2797.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SG - MADAGASCAR</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>VISA INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ACHAT</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>29-DEC-24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MGA</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1807</v>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t>517408697.0</t>
+        </is>
+      </c>
+      <c r="H10" s="5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1807</v>
+      </c>
+      <c r="L10" s="4" t="inlineStr">
+        <is>
+          <t>517408697.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SG - MADAGASCAR</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>VISA INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CASH ADVANCE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>29-DEC-24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MGA</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>6</v>
+      </c>
+      <c r="G11" s="4" t="inlineStr">
+        <is>
+          <t>14165000.0</t>
+        </is>
+      </c>
+      <c r="H11" s="5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>6</v>
+      </c>
+      <c r="L11" s="4" t="inlineStr">
+        <is>
+          <t>14165000.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SG - SENEGAL</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>VISA INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>29-DEC-24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>XOF</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4" t="inlineStr">
+        <is>
+          <t>45000.0</t>
+        </is>
+      </c>
+      <c r="H12" s="5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="4" t="inlineStr">
+        <is>
+          <t>45000.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SG - SENEGAL</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>VISA INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ACHAT</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>29-DEC-24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>XOF</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>567</v>
+      </c>
+      <c r="G13" s="4" t="inlineStr">
+        <is>
+          <t>61546240.0</t>
+        </is>
+      </c>
+      <c r="H13" s="5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>567</v>
+      </c>
+      <c r="L13" s="4" t="inlineStr">
+        <is>
+          <t>61546240.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SG - TCHAD</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>VISA INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ACHAT</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>29-DEC-24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>XAF</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>6</v>
+      </c>
+      <c r="G14" s="4" t="inlineStr">
+        <is>
+          <t>654778.0</t>
+        </is>
+      </c>
+      <c r="H14" s="5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>6</v>
+      </c>
+      <c r="L14" s="4" t="inlineStr">
+        <is>
+          <t>654778.0</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/styled_data.xlsx
+++ b/styled_data.xlsx
@@ -1,12 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,22 +26,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
     </font>
-    <font>
-      <b val="1"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -50,12 +43,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="004F81BD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ffe26b0a"/>
-        <bgColor rgb="ffe26b0a"/>
       </patternFill>
     </fill>
   </fills>
@@ -68,25 +55,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -98,12 +76,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -178,8 +154,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L14" headerRowCount="1">
-  <autoFilter ref="A1:L14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L12" headerRowCount="1">
+  <autoFilter ref="A1:L12"/>
   <tableColumns count="12">
     <tableColumn id="1" name="FILIALE"/>
     <tableColumn id="2" name="Réseau"/>
@@ -482,14 +458,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -502,7 +478,7 @@
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="26" customWidth="1" min="6" max="6"/>
     <col width="31" customWidth="1" min="7" max="7"/>
-    <col width="44" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
     <col width="22" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
     <col width="35" customWidth="1" min="11" max="11"/>
@@ -589,7 +565,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29-DEC-24</t>
+          <t>24-NOV-25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -598,11 +574,11 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t>12980903.0</t>
+          <t>13499831.0</t>
         </is>
       </c>
       <c r="H2" s="5" t="inlineStr">
@@ -619,11 +595,11 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="L2" s="4" t="inlineStr">
         <is>
-          <t>12980903.0</t>
+          <t>13499831.0</t>
         </is>
       </c>
     </row>
@@ -645,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>29-DEC-24</t>
+          <t>24-NOV-25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -654,11 +630,11 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t>1438400.0</t>
+          <t>1832860.0</t>
         </is>
       </c>
       <c r="H3" s="5" t="inlineStr">
@@ -675,74 +651,74 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="L3" s="4" t="inlineStr">
         <is>
-          <t>1438400.0</t>
+          <t>1832860.0</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>SG - CAMEROUN</t>
         </is>
       </c>
-      <c r="B4" s="6" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>VISA INTERNATIONAL</t>
         </is>
       </c>
-      <c r="C4" s="6" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>ACHAT</t>
         </is>
       </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>29-DEC-24</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24-NOV-25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>XAF</t>
         </is>
       </c>
-      <c r="F4" s="6" t="n">
-        <v>470</v>
-      </c>
-      <c r="G4" s="7" t="inlineStr">
-        <is>
-          <t>36240736.0</t>
-        </is>
-      </c>
-      <c r="H4" s="6" t="inlineStr">
-        <is>
-          <t>not ok (avec tr.(s) rejetée(s) a extraire)</t>
-        </is>
-      </c>
-      <c r="I4" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="7" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="K4" s="6" t="n">
-        <v>469</v>
-      </c>
-      <c r="L4" s="7" t="inlineStr">
-        <is>
-          <t>36240735.0</t>
+      <c r="F4" t="n">
+        <v>317</v>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>22717259.0</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>317</v>
+      </c>
+      <c r="L4" s="4" t="inlineStr">
+        <is>
+          <t>22717259.0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SG - CONGO</t>
+          <t>SG - COTE D IVOIRE</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -757,20 +733,20 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>29-DEC-24</t>
+          <t>24-NOV-25</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>XAF</t>
+          <t>XOF</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>30</v>
+        <v>675</v>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t>1627401.0</t>
+          <t>51473038.0</t>
         </is>
       </c>
       <c r="H5" s="5" t="inlineStr">
@@ -787,18 +763,18 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>30</v>
+        <v>675</v>
       </c>
       <c r="L5" s="4" t="inlineStr">
         <is>
-          <t>1627401.0</t>
+          <t>51473038.0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SG - COTE D IVOIRE</t>
+          <t>SG - GUINEE CONAKRY</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -813,20 +789,20 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>29-DEC-24</t>
+          <t>24-NOV-25</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>XOF</t>
+          <t>GNF</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>759</v>
+        <v>139</v>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t>77549589.0</t>
+          <t>250065296.0</t>
         </is>
       </c>
       <c r="H6" s="5" t="inlineStr">
@@ -843,18 +819,18 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>759</v>
+        <v>139</v>
       </c>
       <c r="L6" s="4" t="inlineStr">
         <is>
-          <t>77549589.0</t>
+          <t>250065296.0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SG - GUINEE CONAKRY</t>
+          <t>SG - GUINEE EQUATORIALE</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -869,20 +845,20 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>29-DEC-24</t>
+          <t>24-NOV-25</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>GNF</t>
+          <t>XAF</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t>201946045.0</t>
+          <t>1841826.0</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
@@ -899,18 +875,18 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="L7" s="4" t="inlineStr">
         <is>
-          <t>201946045.0</t>
+          <t>1841826.0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SG - GUINEE EQUATORIALE</t>
+          <t>SG - MADAGASCAR</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -925,20 +901,20 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>29-DEC-24</t>
+          <t>24-NOV-25</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>XAF</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t>1926658.0</t>
+          <t>6749.0</t>
         </is>
       </c>
       <c r="H8" s="5" t="inlineStr">
@@ -955,11 +931,11 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="L8" s="4" t="inlineStr">
         <is>
-          <t>1926658.0</t>
+          <t>6749.0</t>
         </is>
       </c>
     </row>
@@ -981,20 +957,20 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>29-DEC-24</t>
+          <t>24-NOV-25</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>MGA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>124</v>
+        <v>1300</v>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t>2797.7</t>
+          <t>355547543.0</t>
         </is>
       </c>
       <c r="H9" s="5" t="inlineStr">
@@ -1011,11 +987,11 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>124</v>
+        <v>1300</v>
       </c>
       <c r="L9" s="4" t="inlineStr">
         <is>
-          <t>2797.7</t>
+          <t>355547543.0</t>
         </is>
       </c>
     </row>
@@ -1032,12 +1008,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ACHAT</t>
+          <t>CASH ADVANCE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>29-DEC-24</t>
+          <t>24-NOV-25</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1046,11 +1022,11 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1807</v>
+        <v>7</v>
       </c>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t>517408697.0</t>
+          <t>33000000.0</t>
         </is>
       </c>
       <c r="H10" s="5" t="inlineStr">
@@ -1067,18 +1043,18 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>1807</v>
+        <v>7</v>
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
-          <t>517408697.0</t>
+          <t>33000000.0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SG - MADAGASCAR</t>
+          <t>SG - SENEGAL</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1088,25 +1064,25 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CASH ADVANCE</t>
+          <t>ACHAT</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>29-DEC-24</t>
+          <t>24-NOV-25</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MGA</t>
+          <t>XOF</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>6</v>
+        <v>459</v>
       </c>
       <c r="G11" s="4" t="inlineStr">
         <is>
-          <t>14165000.0</t>
+          <t>49926077.0</t>
         </is>
       </c>
       <c r="H11" s="5" t="inlineStr">
@@ -1123,18 +1099,18 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>6</v>
+        <v>459</v>
       </c>
       <c r="L11" s="4" t="inlineStr">
         <is>
-          <t>14165000.0</t>
+          <t>49926077.0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SG - SENEGAL</t>
+          <t>SG - TCHAD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1142,22 +1118,27 @@
           <t>VISA INTERNATIONAL</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ACHAT</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29-DEC-24</t>
+          <t>24-NOV-25</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>XOF</t>
+          <t>XAF</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="G12" s="4" t="inlineStr">
         <is>
-          <t>45000.0</t>
+          <t>2123980.0</t>
         </is>
       </c>
       <c r="H12" s="5" t="inlineStr">
@@ -1174,130 +1155,18 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="L12" s="4" t="inlineStr">
         <is>
-          <t>45000.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>SG - SENEGAL</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>VISA INTERNATIONAL</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>ACHAT</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>29-DEC-24</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>XOF</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>567</v>
-      </c>
-      <c r="G13" s="4" t="inlineStr">
-        <is>
-          <t>61546240.0</t>
-        </is>
-      </c>
-      <c r="H13" s="5" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="K13" t="n">
-        <v>567</v>
-      </c>
-      <c r="L13" s="4" t="inlineStr">
-        <is>
-          <t>61546240.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>SG - TCHAD</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>VISA INTERNATIONAL</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>ACHAT</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>29-DEC-24</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>XAF</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
-      </c>
-      <c r="G14" s="4" t="inlineStr">
-        <is>
-          <t>654778.0</t>
-        </is>
-      </c>
-      <c r="H14" s="5" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="K14" t="n">
-        <v>6</v>
-      </c>
-      <c r="L14" s="4" t="inlineStr">
-        <is>
-          <t>654778.0</t>
+          <t>2123980.0</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/styled_data.xlsx
+++ b/styled_data.xlsx
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>24000</v>
+        <v>24</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>REJET EP</t>
+          <t>REJET VISA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>54000</v>
+        <v>54</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -656,7 +656,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>REJET EP</t>
+          <t>REJET VISA</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
